--- a/target/classes/scenarios/R82020.xlsx
+++ b/target/classes/scenarios/R82020.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="555" windowWidth="19815" windowHeight="7365" activeTab="2"/>
+    <workbookView xWindow="900" yWindow="3210" windowWidth="19305" windowHeight="4710" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="60">
   <si>
     <t>QA Clear Session</t>
   </si>
@@ -72,9 +72,6 @@
     <t>elsevieroffline_uat</t>
   </si>
   <si>
-    <t>locator</t>
-  </si>
-  <si>
     <t>INPUT2</t>
   </si>
   <si>
@@ -108,9 +105,6 @@
     <t>openBrowser</t>
   </si>
   <si>
-    <t>chrome</t>
-  </si>
-  <si>
     <t>openUrl</t>
   </si>
   <si>
@@ -120,9 +114,6 @@
     <t>Enter user ID</t>
   </si>
   <si>
-    <t>id=txt_user</t>
-  </si>
-  <si>
     <t>sendKeys</t>
   </si>
   <si>
@@ -132,27 +123,15 @@
     <t>Enter user Password</t>
   </si>
   <si>
-    <t>id=txt_pwd</t>
-  </si>
-  <si>
     <t>test</t>
   </si>
   <si>
     <t>Click on LOGIN button</t>
   </si>
   <si>
-    <t>id=btn_signin</t>
-  </si>
-  <si>
     <t>click</t>
   </si>
   <si>
-    <t>Close the Browser</t>
-  </si>
-  <si>
-    <t>quit</t>
-  </si>
-  <si>
     <t>test step</t>
   </si>
   <si>
@@ -163,13 +142,67 @@
   </si>
   <si>
     <t>Launch URL</t>
+  </si>
+  <si>
+    <t>locatorType</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>locatorValue</t>
+  </si>
+  <si>
+    <t>txt_user</t>
+  </si>
+  <si>
+    <t>txt_pwd</t>
+  </si>
+  <si>
+    <t>btn_signin</t>
+  </si>
+  <si>
+    <t>Click on Image Process tab</t>
+  </si>
+  <si>
+    <t>header1_lnk_imageprocess</t>
+  </si>
+  <si>
+    <t>Click on the Upload Details link</t>
+  </si>
+  <si>
+    <t>xpath</t>
+  </si>
+  <si>
+    <t>//*[@id='header1_tr_imageprocess']//*[text()='Upload Details']</t>
+  </si>
+  <si>
+    <t>Select DJS-IV from Team Drop Down list</t>
+  </si>
+  <si>
+    <t>//*[@id='ddl_team']//*[text()='DJS-IV']</t>
+  </si>
+  <si>
+    <t>//*[@id='ddl_category']//*[text()='Upload Journals']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select Upload Journals from Category </t>
+  </si>
+  <si>
+    <t>Enter Date in the Due. Date field</t>
+  </si>
+  <si>
+    <t>//*[@id='txtduedate']</t>
+  </si>
+  <si>
+    <t>2019/10/01</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -264,8 +297,16 @@
       <color rgb="FF000000"/>
       <name val="Liberation Sans"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -296,8 +337,14 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -333,6 +380,47 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -348,7 +436,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -428,6 +516,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -976,162 +1085,253 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="2" width="36.375" style="9" customWidth="1"/>
-    <col min="3" max="3" width="21.625" style="9" customWidth="1"/>
-    <col min="4" max="4" width="57.5" style="22" customWidth="1"/>
-    <col min="5" max="5" width="26.875" style="22" customWidth="1"/>
-    <col min="6" max="16384" width="10.75" style="29"/>
+    <col min="1" max="1" width="36.375" style="35" customWidth="1"/>
+    <col min="2" max="2" width="14.375" style="32" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="45.5" style="38" customWidth="1"/>
+    <col min="4" max="4" width="21.625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="57.5" style="22" customWidth="1"/>
+    <col min="6" max="6" width="26.875" style="22" customWidth="1"/>
+    <col min="7" max="16384" width="10.75" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="19" customFormat="1" ht="15">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:13" s="19" customFormat="1" ht="15.75">
+      <c r="A1" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" s="19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="23" customFormat="1" ht="15">
+      <c r="A2" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="24"/>
+      <c r="G2" s="25"/>
+    </row>
+    <row r="3" spans="1:13" s="23" customFormat="1" ht="15">
+      <c r="A3" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="24"/>
+      <c r="G3" s="25"/>
+    </row>
+    <row r="4" spans="1:13" s="23" customFormat="1" ht="15">
+      <c r="A4" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="19" t="s">
+      <c r="D4" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="27"/>
+      <c r="G4" s="25"/>
+    </row>
+    <row r="5" spans="1:13" s="9" customFormat="1" ht="15">
+      <c r="A5" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D5" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="26"/>
+      <c r="G5" s="28"/>
+    </row>
+    <row r="6" spans="1:13" customFormat="1">
+      <c r="A6" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="J1" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="K1" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="L1" s="19" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" s="23" customFormat="1" ht="15">
-      <c r="A2" s="23" t="s">
+      <c r="D6" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="24"/>
-      <c r="F2" s="25"/>
-    </row>
-    <row r="3" spans="1:12" s="23" customFormat="1" ht="15">
-      <c r="A3" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="24"/>
-      <c r="F3" s="25"/>
-    </row>
-    <row r="4" spans="1:12" s="23" customFormat="1" ht="15">
-      <c r="A4" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="27"/>
-      <c r="F4" s="25"/>
-    </row>
-    <row r="5" spans="1:12" s="9" customFormat="1" ht="15">
-      <c r="A5" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="26"/>
-      <c r="F5" s="28"/>
-    </row>
-    <row r="6" spans="1:12" customFormat="1">
-      <c r="A6" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="26"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="9"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="28"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
-    </row>
-    <row r="7" spans="1:12" ht="15">
-      <c r="A7" s="9" t="s">
+      <c r="M6" s="9"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="22" t="s">
-        <v>28</v>
+      <c r="C7" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="28.5">
+      <c r="A8" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="27" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.39370078740157505" bottom="0.39370078740157505" header="0" footer="0"/>
-  <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
